--- a/TestData/User_Dashboard.xlsx
+++ b/TestData/User_Dashboard.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\pythonProject\BPxPoc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D90E99-EE44-42AC-92B6-77FAD7119BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE42A50-EA85-4382-9B49-620809AC8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>
     <sheet name="OneMapRouting" sheetId="2" r:id="rId2"/>
+    <sheet name="Arc_GIS" sheetId="3" r:id="rId3"/>
+    <sheet name="Master" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>LAVERNE 58-T2-12X1 3B B302H</t>
   </si>
@@ -80,13 +82,259 @@
   </si>
   <si>
     <t>GPS_Source_Input</t>
+  </si>
+  <si>
+    <t>Business_Unit_Input</t>
+  </si>
+  <si>
+    <t>Facility_Input</t>
+  </si>
+  <si>
+    <t>Gateway_Input</t>
+  </si>
+  <si>
+    <t>Permian</t>
+  </si>
+  <si>
+    <t>GRAND SLAM CDP</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-001</t>
+  </si>
+  <si>
+    <t>ArcGIS_Business_Unit_DD</t>
+  </si>
+  <si>
+    <t>ArcGIS_Facility_DD</t>
+  </si>
+  <si>
+    <t>ArcGIS_Gateway_DD</t>
+  </si>
+  <si>
+    <t>ArcGIS_Device_DD</t>
+  </si>
+  <si>
+    <t>Eagle Ford Black Hawk</t>
+  </si>
+  <si>
+    <t>Eagle Ford Hawkville</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>BINGO CDP</t>
+  </si>
+  <si>
+    <t>BISHOP SWD</t>
+  </si>
+  <si>
+    <t>BLACKHAWK CENTRAL CDP</t>
+  </si>
+  <si>
+    <t>BLACKHAWK NORTHEAST CDP</t>
+  </si>
+  <si>
+    <t>BLACKHAWK SOUTHWEST CDP</t>
+  </si>
+  <si>
+    <t>CHECKMATE CDP</t>
+  </si>
+  <si>
+    <t>HAWKVILLE CENTRAL CDP</t>
+  </si>
+  <si>
+    <t>HAWKVILLE FAR EAST CDP</t>
+  </si>
+  <si>
+    <t>HAWKVILLE NORTHEAST CDP</t>
+  </si>
+  <si>
+    <t>KARNES CDP</t>
+  </si>
+  <si>
+    <t>WATERFALL 56-T2-15 FACILITY PAD</t>
+  </si>
+  <si>
+    <t>Device_Input</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-001</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-002</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-003</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-004</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-005</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-007</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-011</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-012</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-013</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-014</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-015</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-016</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-017</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-018</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-019</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-020</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-021</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-022</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-023</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-024</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-025</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-026</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-027</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-028</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-029</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-031</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-032</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-033</t>
+  </si>
+  <si>
+    <t>ngw-ef-ms-034</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-002</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-003</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-004</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-005</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-006</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-008</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-009</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-010</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-011</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-012</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-013</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-014</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-15</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-16</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-17</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-18</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-19</t>
+  </si>
+  <si>
+    <t>ngw-perm-ms-20</t>
+  </si>
+  <si>
+    <t>mn-m10</t>
+  </si>
+  <si>
+    <t>nm-gw01</t>
+  </si>
+  <si>
+    <t>nm-m01</t>
+  </si>
+  <si>
+    <t>nm-m02</t>
+  </si>
+  <si>
+    <t>nm-m03</t>
+  </si>
+  <si>
+    <t>nm-m04</t>
+  </si>
+  <si>
+    <t>nm-m05</t>
+  </si>
+  <si>
+    <t>nm-m06</t>
+  </si>
+  <si>
+    <t>nm-m07</t>
+  </si>
+  <si>
+    <t>nm-m08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +388,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -189,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -217,6 +477,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBDEB91-7A76-4256-939D-7307DD95B04D}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -791,4 +1052,640 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E5C8E-15B7-4737-BC2D-FBAA4C5B451D}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7BC6D89C-D18A-47A1-905F-BD1A4D59672C}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{95CF9EC8-2DC8-4C0C-A0C9-4CE6A723F6DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{111973C2-9D97-4A4B-AFB4-802EECCDE59A}">
+          <x14:formula1>
+            <xm:f>Master!$A$2:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{086EC8E2-0AD6-4493-A2F0-59987A987992}">
+          <x14:formula1>
+            <xm:f>Master!$B$2:$B$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{242D22E4-DC81-40A7-9D09-90AFBFEC5E6D}">
+          <x14:formula1>
+            <xm:f>Master!$C$2:$C$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9DDDF2C-8797-43AA-8BF5-A191B673D3B0}">
+          <x14:formula1>
+            <xm:f>Master!$D$2:$D$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F2626-80DD-46FD-8FFC-A99C16C879FD}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/User_Dashboard.xlsx
+++ b/TestData/User_Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\pythonProject\BPxPoc\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\BPxPoc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE42A50-EA85-4382-9B49-620809AC8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CFD92-BFFA-4F05-A545-E0492A564050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="148">
   <si>
     <t>LAVERNE 58-T2-12X1 3B B302H</t>
   </si>
@@ -36,12 +36,6 @@
     <t>HS STATE 113-22X15 1H</t>
   </si>
   <si>
-    <t>Souce Input</t>
-  </si>
-  <si>
-    <t>Souce Distination</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -328,31 +322,169 @@
   </si>
   <si>
     <t>nm-m08</t>
+  </si>
+  <si>
+    <t>Login_URL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>SVC-AUTOFRAMEWORK-TEST-S@bpx.com</t>
+  </si>
+  <si>
+    <t>xGP&amp;X8L6M2#9(f^$</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>https://portal.stage.intranet.bpx.com/</t>
+  </si>
+  <si>
+    <t>Well_bores_DD_Selection_Value</t>
+  </si>
+  <si>
+    <t>Well Name</t>
+  </si>
+  <si>
+    <t>Well_bores_input</t>
+  </si>
+  <si>
+    <t>DZIUK A 12H</t>
+  </si>
+  <si>
+    <t>Test Comment</t>
+  </si>
+  <si>
+    <t>Test_csv_file.csv</t>
+  </si>
+  <si>
+    <t>Test_PPT_file.pptx</t>
+  </si>
+  <si>
+    <t>Pads_DropDown_Selection</t>
+  </si>
+  <si>
+    <t>Pads_Search_Input</t>
+  </si>
+  <si>
+    <t>WellOrigins_DropDown_Selection</t>
+  </si>
+  <si>
+    <t>WellOrigins_Search_Input</t>
+  </si>
+  <si>
+    <t>Pads_Add_Comments</t>
+  </si>
+  <si>
+    <t>Pads_Attachments_URL_Name</t>
+  </si>
+  <si>
+    <t>Pads_Attachments_URL</t>
+  </si>
+  <si>
+    <t>Pads_Uploading_files</t>
+  </si>
+  <si>
+    <t>Pads_Uploading_file_names</t>
+  </si>
+  <si>
+    <t>WellOrigins_Add_Comments</t>
+  </si>
+  <si>
+    <t>WellOrigins_Attachments_URL_Name</t>
+  </si>
+  <si>
+    <t>WellOrigins_Attachments_URL</t>
+  </si>
+  <si>
+    <t>WellOrigins_Uploading_files</t>
+  </si>
+  <si>
+    <t>WellOrigins_Uploading_file_names</t>
+  </si>
+  <si>
+    <t>Wellbores_Add_Comments</t>
+  </si>
+  <si>
+    <t>Wellbores_Attachments_URL_Name</t>
+  </si>
+  <si>
+    <t>Wellbores_Attachments_URL</t>
+  </si>
+  <si>
+    <t>Wellbores_Uploading_files</t>
+  </si>
+  <si>
+    <t>Wellbores_Uploading_file_names</t>
+  </si>
+  <si>
+    <t>Completion_DropDown_Selection</t>
+  </si>
+  <si>
+    <t>Completion_Search_Input</t>
+  </si>
+  <si>
+    <t>Completion_Add_Comments</t>
+  </si>
+  <si>
+    <t>Completion_Attachments_URL_Name</t>
+  </si>
+  <si>
+    <t>Completion_Attachments_URL</t>
+  </si>
+  <si>
+    <t>Completion_Uploading_files</t>
+  </si>
+  <si>
+    <t>Completion_Uploading_file_names</t>
+  </si>
+  <si>
+    <t>"C:\Users\10712370\PycharmProjects\pythonProject\BPxPoc\TestData\Upload_files\Test_csv_file.csv""C:\Users\10712370\PycharmProjects\pythonProject\BPxPoc\TestData\Upload_files\Test_PPT_file.pptx"</t>
+  </si>
+  <si>
+    <t>Toggle_option</t>
+  </si>
+  <si>
+    <t>List_of_Search_Input</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>Test_URL_NAME</t>
+  </si>
+  <si>
+    <t>Test url</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>GIS_BookMark_Selection_Value</t>
+  </si>
+  <si>
+    <t>BHC - BlackHawk Central</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF871094"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -447,37 +579,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,61 +886,1238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="88.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{26CBDB2F-871D-4C00-8311-74248BE6CEC3}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1E97D44A-7DCB-42F0-986D-E8ABBA774CA5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -822,228 +2126,228 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="104.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="26.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1058,235 +2362,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E5C8E-15B7-4737-BC2D-FBAA4C5B451D}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="104.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="36.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1331,11 +2639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F2626-80DD-46FD-8FFC-A99C16C879FD}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -1344,348 +2652,348 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/User_Dashboard.xlsx
+++ b/TestData/User_Dashboard.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\BPxPoc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CFD92-BFFA-4F05-A545-E0492A564050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC7D63-444C-493C-BBC2-CB741E69800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>
     <sheet name="OneMapRouting" sheetId="2" r:id="rId2"/>
     <sheet name="Arc_GIS" sheetId="3" r:id="rId3"/>
-    <sheet name="Master" sheetId="4" r:id="rId4"/>
+    <sheet name="Mobile" sheetId="5" r:id="rId4"/>
+    <sheet name="Master" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
   <si>
     <t>LAVERNE 58-T2-12X1 3B B302H</t>
   </si>
@@ -472,13 +473,52 @@
   </si>
   <si>
     <t>BHC - BlackHawk Central</t>
+  </si>
+  <si>
+    <t>https://onemap.bpx.com/portal</t>
+  </si>
+  <si>
+    <t>Mobile_Host</t>
+  </si>
+  <si>
+    <t>Mobile_Platform_Name</t>
+  </si>
+  <si>
+    <t>Mobile_App_Package</t>
+  </si>
+  <si>
+    <t>Mobile_App_Activity</t>
+  </si>
+  <si>
+    <t>Mobile_Automation_Name</t>
+  </si>
+  <si>
+    <t>uiautomator2</t>
+  </si>
+  <si>
+    <t>com.esri.apps.androidcore.activities.AppEntryActivity</t>
+  </si>
+  <si>
+    <t>com.esri.navigator</t>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>http://localhost:4723</t>
+  </si>
+  <si>
+    <t>ANDROID_DEVICE_NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +572,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF871094"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -581,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -605,6 +652,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,11 +941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="88.5703125" customWidth="1"/>
@@ -905,7 +958,7 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -926,7 +979,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1000,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -968,7 +1021,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>99</v>
       </c>
@@ -989,7 +1042,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1010,7 +1063,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -1029,7 +1082,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1050,7 +1103,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
@@ -1069,7 +1122,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -1090,7 +1143,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -1111,7 +1164,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -1132,7 +1185,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -1155,7 +1208,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -1176,7 +1229,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -1197,7 +1250,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -1216,7 +1269,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -1235,7 +1288,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>122</v>
       </c>
@@ -1254,7 +1307,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>123</v>
       </c>
@@ -1273,7 +1326,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>124</v>
       </c>
@@ -1292,7 +1345,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -1313,7 +1366,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -1334,7 +1387,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -1355,7 +1408,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -1374,7 +1427,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -1393,7 +1446,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -1414,7 +1467,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -1437,7 +1490,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1458,7 +1511,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
@@ -1479,7 +1532,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -1498,7 +1551,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -1517,7 +1570,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -1536,7 +1589,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -1555,7 +1608,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -1574,7 +1627,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -1595,7 +1648,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -1618,7 +1671,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
@@ -1635,7 +1688,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
@@ -1652,7 +1705,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="10"/>
@@ -1669,7 +1722,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="10"/>
@@ -1686,7 +1739,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="10"/>
@@ -1703,7 +1756,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="10"/>
@@ -1720,7 +1773,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="10"/>
@@ -1737,7 +1790,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="10"/>
@@ -1754,7 +1807,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="10"/>
@@ -1771,7 +1824,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="10"/>
@@ -1788,7 +1841,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -1805,7 +1858,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="10"/>
@@ -1822,7 +1875,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="10"/>
@@ -1839,7 +1892,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -1856,7 +1909,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="10"/>
@@ -1873,7 +1926,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="10"/>
@@ -1890,7 +1943,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="10"/>
@@ -1907,7 +1960,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -1924,7 +1977,7 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="10"/>
@@ -1941,7 +1994,7 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="10"/>
@@ -1958,7 +2011,7 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="10"/>
@@ -1975,7 +2028,7 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="10"/>
@@ -1992,7 +2045,7 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="10"/>
@@ -2009,7 +2062,7 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="10"/>
@@ -2026,7 +2079,7 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="10"/>
@@ -2043,7 +2096,7 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -2060,7 +2113,7 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="10"/>
@@ -2077,7 +2130,7 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="10"/>
@@ -2094,7 +2147,7 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="10"/>
@@ -2129,7 +2182,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="104.85546875" style="2" customWidth="1"/>
@@ -2137,7 +2190,7 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="24.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="24.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2169,7 +2222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="24.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2201,151 +2254,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="24.95" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24.95" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="24.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="24.95" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="24.95" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="24.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24.95" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="24.95" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="24.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="24.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="24.95" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="24.95" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="24.95" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="24.95" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="24.95" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="24.95" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="24.95" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="24.95" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="24.95" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="24.95" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="24.95" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="24.95" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
@@ -2363,10 +2416,10 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="104.85546875" style="2" customWidth="1"/>
@@ -2374,7 +2427,7 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2382,7 +2435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="24.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="24.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2422,7 +2475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="24.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="24.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2446,13 +2499,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -2460,139 +2513,139 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="24.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="24.95" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="24.95" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="24.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24.95" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="24.95" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="24.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="24.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="24.95" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="24.95" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="24.95" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="24.95" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="24.95" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="24.95" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="24.95" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="24.95" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="24.95" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="24.95" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="24.95" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="24.95" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
@@ -2636,6 +2689,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85AC7-4171-4F64-B69F-2B611C18BBC6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C6719FB5-A0D3-4499-B7AB-26A7F037FBB3}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{D5D3428A-DB08-4133-AF75-A18FC796566F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F2626-80DD-46FD-8FFC-A99C16C879FD}">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -2643,7 +2802,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -2652,7 +2811,7 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2666,7 +2825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2694,7 +2853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -2708,7 +2867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
@@ -2719,7 +2878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
@@ -2730,7 +2889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
@@ -2741,7 +2900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
@@ -2752,7 +2911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2763,7 +2922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2774,7 +2933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -2785,7 +2944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -2796,7 +2955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +2963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2812,182 +2971,182 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3">
       <c r="C23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3">
       <c r="C39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3">
       <c r="C41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3">
       <c r="C42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3">
       <c r="C44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3">
       <c r="C45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3">
       <c r="C46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3">
       <c r="C48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3">
       <c r="C49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3">
       <c r="C50" t="s">
         <v>87</v>
       </c>

--- a/TestData/User_Dashboard.xlsx
+++ b/TestData/User_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\BPxPoc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC7D63-444C-493C-BBC2-CB741E69800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AA81B-2DF7-42EF-A975-F89F9A778ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2693,7 +2693,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/User_Dashboard.xlsx
+++ b/TestData/User_Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10712370\PycharmProjects\BPxPoc\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10656162\MyProject\BPxPoc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AA81B-2DF7-42EF-A975-F89F9A778ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365825E-7D91-491E-B8C3-56D2BCD26CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
   <si>
     <t>LAVERNE 58-T2-12X1 3B B302H</t>
   </si>
@@ -512,6 +512,18 @@
   </si>
   <si>
     <t>ANDROID_DEVICE_NAME</t>
+  </si>
+  <si>
+    <t>com.deltecs.ltiapp</t>
+  </si>
+  <si>
+    <t>com.deltecs.dronalite.activities.NativeAppConnect</t>
+  </si>
+  <si>
+    <t>com.google.android.calendar</t>
+  </si>
+  <si>
+    <t>com.android.calendar.LaunchActivity</t>
   </si>
 </sst>
 </file>
@@ -2690,107 +2702,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85AC7-4171-4F64-B69F-2B611C18BBC6}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="97.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C6719FB5-A0D3-4499-B7AB-26A7F037FBB3}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{D5D3428A-DB08-4133-AF75-A18FC796566F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4E8B3B23-EFA6-4586-8706-99EFF1437E35}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A29A1ECA-2C71-4BB3-B840-5203D3D98CA4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{BE7EC299-0AC0-46D8-8628-CA6D667CFF87}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{5AEBD162-E49F-4B84-BDA4-D72344EF20C1}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{374936F9-B5CE-4FD4-9137-C507CEFD706D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
